--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.717901</v>
+        <v>0.392285</v>
       </c>
       <c r="H2">
-        <v>2.153703</v>
+        <v>1.176855</v>
       </c>
       <c r="I2">
-        <v>0.0380297505351077</v>
+        <v>0.0216687106565248</v>
       </c>
       <c r="J2">
-        <v>0.0380297505351077</v>
+        <v>0.0216687106565248</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="N2">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="O2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="P2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="Q2">
-        <v>75.232292432701</v>
+        <v>28.348868202285</v>
       </c>
       <c r="R2">
-        <v>677.0906318943091</v>
+        <v>255.139813820565</v>
       </c>
       <c r="S2">
-        <v>0.0147267211874109</v>
+        <v>0.006391516157462874</v>
       </c>
       <c r="T2">
-        <v>0.01472672118741089</v>
+        <v>0.006391516157462873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.717901</v>
+        <v>0.392285</v>
       </c>
       <c r="H3">
-        <v>2.153703</v>
+        <v>1.176855</v>
       </c>
       <c r="I3">
-        <v>0.0380297505351077</v>
+        <v>0.0216687106565248</v>
       </c>
       <c r="J3">
-        <v>0.0380297505351077</v>
+        <v>0.0216687106565248</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>136.674446</v>
       </c>
       <c r="N3">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="O3">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="P3">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="Q3">
-        <v>98.11872145784601</v>
+        <v>53.61533504910999</v>
       </c>
       <c r="R3">
-        <v>883.0684931206142</v>
+        <v>482.53801544199</v>
       </c>
       <c r="S3">
-        <v>0.01920673965195894</v>
+        <v>0.01208807624378284</v>
       </c>
       <c r="T3">
-        <v>0.01920673965195894</v>
+        <v>0.01208807624378284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.717901</v>
+        <v>0.392285</v>
       </c>
       <c r="H4">
-        <v>2.153703</v>
+        <v>1.176855</v>
       </c>
       <c r="I4">
-        <v>0.0380297505351077</v>
+        <v>0.0216687106565248</v>
       </c>
       <c r="J4">
-        <v>0.0380297505351077</v>
+        <v>0.0216687106565248</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="N4">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="O4">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="P4">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="Q4">
-        <v>20.92612879384533</v>
+        <v>14.144983893195</v>
       </c>
       <c r="R4">
-        <v>188.335159144608</v>
+        <v>127.304855038755</v>
       </c>
       <c r="S4">
-        <v>0.00409628969573787</v>
+        <v>0.003189118255279088</v>
       </c>
       <c r="T4">
-        <v>0.00409628969573787</v>
+        <v>0.003189118255279087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>41.75960600000001</v>
       </c>
       <c r="I5">
-        <v>0.7373845876726675</v>
+        <v>0.7688940604785444</v>
       </c>
       <c r="J5">
-        <v>0.7373845876726675</v>
+        <v>0.7688940604785441</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="N5">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="O5">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="P5">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="Q5">
-        <v>1458.729866869469</v>
+        <v>1005.933242985202</v>
       </c>
       <c r="R5">
-        <v>13128.56880182522</v>
+        <v>9053.399186866818</v>
       </c>
       <c r="S5">
-        <v>0.2855463703482473</v>
+        <v>0.2267970110831697</v>
       </c>
       <c r="T5">
-        <v>0.2855463703482473</v>
+        <v>0.2267970110831696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>41.75960600000001</v>
       </c>
       <c r="I6">
-        <v>0.7373845876726675</v>
+        <v>0.7688940604785444</v>
       </c>
       <c r="J6">
-        <v>0.7373845876726675</v>
+        <v>0.7688940604785441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>136.674446</v>
       </c>
       <c r="N6">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="O6">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="P6">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="Q6">
-        <v>1902.490338409426</v>
+        <v>1902.490338409425</v>
       </c>
       <c r="R6">
         <v>17122.41304568483</v>
       </c>
       <c r="S6">
-        <v>0.3724124823201633</v>
+        <v>0.4289341518184751</v>
       </c>
       <c r="T6">
-        <v>0.3724124823201632</v>
+        <v>0.4289341518184751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>41.75960600000001</v>
       </c>
       <c r="I7">
-        <v>0.7373845876726675</v>
+        <v>0.7688940604785444</v>
       </c>
       <c r="J7">
-        <v>0.7373845876726675</v>
+        <v>0.7688940604785441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="N7">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="O7">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="P7">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="Q7">
-        <v>405.750882798713</v>
+        <v>501.921608232254</v>
       </c>
       <c r="R7">
-        <v>3651.757945188417</v>
+        <v>4517.294474090286</v>
       </c>
       <c r="S7">
-        <v>0.07942573500425702</v>
+        <v>0.1131628975768996</v>
       </c>
       <c r="T7">
-        <v>0.07942573500425701</v>
+        <v>0.1131628975768995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.239582666666666</v>
+        <v>3.7916</v>
       </c>
       <c r="H8">
-        <v>12.718748</v>
+        <v>11.3748</v>
       </c>
       <c r="I8">
-        <v>0.2245856617922248</v>
+        <v>0.209437228864931</v>
       </c>
       <c r="J8">
-        <v>0.2245856617922248</v>
+        <v>0.209437228864931</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="N8">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="O8">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="P8">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="Q8">
-        <v>444.2862218763826</v>
+        <v>274.0037693916</v>
       </c>
       <c r="R8">
-        <v>3998.575996887444</v>
+        <v>2466.0339245244</v>
       </c>
       <c r="S8">
-        <v>0.08696902759987794</v>
+        <v>0.06177669975307808</v>
       </c>
       <c r="T8">
-        <v>0.08696902759987794</v>
+        <v>0.06177669975307808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.239582666666666</v>
+        <v>3.7916</v>
       </c>
       <c r="H9">
-        <v>12.718748</v>
+        <v>11.3748</v>
       </c>
       <c r="I9">
-        <v>0.2245856617922248</v>
+        <v>0.209437228864931</v>
       </c>
       <c r="J9">
-        <v>0.2245856617922248</v>
+        <v>0.209437228864931</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>136.674446</v>
       </c>
       <c r="N9">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="O9">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="P9">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="Q9">
-        <v>579.4426122378693</v>
+        <v>518.2148294536</v>
       </c>
       <c r="R9">
-        <v>5214.983510140825</v>
+        <v>4663.933465082399</v>
       </c>
       <c r="S9">
-        <v>0.1134258909120122</v>
+        <v>0.1168363559298138</v>
       </c>
       <c r="T9">
-        <v>0.1134258909120122</v>
+        <v>0.1168363559298139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.239582666666666</v>
+        <v>3.7916</v>
       </c>
       <c r="H10">
-        <v>12.718748</v>
+        <v>11.3748</v>
       </c>
       <c r="I10">
-        <v>0.2245856617922248</v>
+        <v>0.209437228864931</v>
       </c>
       <c r="J10">
-        <v>0.2245856617922248</v>
+        <v>0.209437228864931</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="N10">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="O10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="P10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="Q10">
-        <v>123.5797873450809</v>
+        <v>136.7172360132</v>
       </c>
       <c r="R10">
-        <v>1112.218086105728</v>
+        <v>1230.4551241188</v>
       </c>
       <c r="S10">
-        <v>0.02419074328033468</v>
+        <v>0.03082417318203905</v>
       </c>
       <c r="T10">
-        <v>0.02419074328033468</v>
+        <v>0.03082417318203905</v>
       </c>
     </row>
   </sheetData>
